--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/similarity_3_parsed_output/tokens_pure_noise.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/similarity_3_parsed_output/tokens_pure_noise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,21 +600,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Plant and Animal Species Atlas</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUALITY</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
